--- a/web/PirateCardsLayaGame/design/Config/Common/CardScoreType.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/CardScoreType.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827D96B-1BD9-40A3-93AB-EE437D87B255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F702DF-97FE-4753-82A3-9F3899F153CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Feng Zeng</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{AC82B83C-8ED5-4008-8998-E7A1F974AA1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Feng Zeng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+    // 坏牌
+    Warrior = 1,
+    // 英雄
+    Hero = 2,
+    // 好牌
+    PowerUp = 3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>int</t>
   </si>
@@ -38,31 +79,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>scoreType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>类型名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -72,6 +88,220 @@
   </si>
   <si>
     <t>是否是宝箱里的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是木桶里的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPowerUp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是有益的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>血瓶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盔甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮炮管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horseshoe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>马蹄铁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skull</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图组件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontHero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontWarriowEnemy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontWarriowBoss</t>
+  </si>
+  <si>
+    <t>CardViewFrontPowerUp</t>
+  </si>
+  <si>
+    <t>CardViewFrontPowerUp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontWarriow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontWarriowTrap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontPowerUpCannon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontPowerUpBarrel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontPowerUpChest</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontPowerUpBomb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardViewFrontPowerUpSkull</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isInChest</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isInBarrel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -119,19 +349,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -177,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,12 +418,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,89 +694,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="41" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -562,5 +1139,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/web/PirateCardsLayaGame/design/Config/Common/CardScoreType.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/CardScoreType.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F702DF-97FE-4753-82A3-9F3899F153CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E02C94-2125-4814-BFE6-6768EF277CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>int</t>
   </si>
@@ -302,6 +302,38 @@
   </si>
   <si>
     <t>Boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiplierPositive</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数好牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiplierNegative</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数坏牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPositive</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddNegative</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分好牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分坏牌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -695,13 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1135,6 +1167,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/PirateCardsLayaGame/design/Config/Common/CardScoreType.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/CardScoreType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E02C94-2125-4814-BFE6-6768EF277CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B272FB73-9A33-4EB6-A64B-06ED53895675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,10 +730,10 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
